--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -147,11 +147,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,30 +175,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,22 +220,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -241,71 +227,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +313,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +555,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -573,6 +577,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,170 +604,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1393,13 +1386,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
@@ -1464,6 +1457,23 @@
       </c>
       <c r="L3">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2">
+        <v>42465</v>
+      </c>
+      <c r="E4">
+        <v>3500</v>
+      </c>
+      <c r="J4">
+        <v>3.2</v>
+      </c>
+      <c r="L4">
+        <v>34</v>
+      </c>
+      <c r="M4">
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="7875" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -146,12 +146,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,12 +161,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -182,7 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +244,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,18 +288,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,78 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,65 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,7 +533,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +576,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,137 +631,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +773,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1117,7 +1127,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A20:A21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1130,28 +1140,28 @@
       <c r="A1" s="3">
         <v>42465</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1217,7 +1227,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>42468</v>
       </c>
       <c r="B13" t="s">
@@ -1228,7 +1238,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1389,7 +1399,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1470,7 +1480,7 @@
         <v>3.2</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>38.3</v>
       </c>
       <c r="M4">
         <v>853</v>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12195" activeTab="2"/>
+    <workbookView windowWidth="15255" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -146,12 +146,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,22 +168,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -191,15 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,89 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -304,8 +249,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,49 +327,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,133 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +518,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,80 +614,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -619,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,137 +638,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +782,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1127,7 +1137,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1140,28 +1150,28 @@
       <c r="A1" s="3">
         <v>42465</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1178,10 +1188,10 @@
       <c r="A6" s="3">
         <v>42466</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1227,7 +1237,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>42468</v>
       </c>
       <c r="B13" t="s">
@@ -1238,7 +1248,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1293,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1306,7 +1316,7 @@
       <c r="A2" s="3">
         <v>42466</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1396,13 +1406,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
@@ -1484,6 +1494,20 @@
       </c>
       <c r="M4">
         <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>42466</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>3.2</v>
+      </c>
+      <c r="L5">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15255" windowHeight="7875" activeTab="1"/>
+    <workbookView windowWidth="18510" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -146,12 +146,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,51 +168,129 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,92 +305,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,55 +320,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,127 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +511,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,23 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,23 +576,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,11 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,149 +619,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,9 +775,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1150,28 +1140,28 @@
       <c r="A1" s="3">
         <v>42465</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1237,7 +1227,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>42468</v>
       </c>
       <c r="B13" t="s">
@@ -1248,7 +1238,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1303,8 +1293,8 @@
   <sheetPr/>
   <dimension ref="A2:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1406,13 +1396,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
@@ -1508,6 +1498,23 @@
       </c>
       <c r="L5">
         <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>42467</v>
+      </c>
+      <c r="E6">
+        <v>3520</v>
+      </c>
+      <c r="F6">
+        <v>3670</v>
+      </c>
+      <c r="J6">
+        <v>3.2</v>
+      </c>
+      <c r="L6">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -181,6 +181,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -196,6 +210,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -203,15 +241,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,15 +266,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,63 +304,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,181 +326,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,15 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,6 +540,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -572,45 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,142 +619,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1396,13 +1396,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
@@ -1515,6 +1515,20 @@
       </c>
       <c r="L6">
         <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>42468</v>
+      </c>
+      <c r="F7">
+        <v>3660</v>
+      </c>
+      <c r="J7">
+        <v>3.2</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -168,59 +168,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,8 +236,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,36 +261,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -303,9 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,19 +320,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,163 +464,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,32 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +525,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,24 +579,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,145 +619,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,13 +1396,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
@@ -1529,6 +1529,14 @@
       </c>
       <c r="L7">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="10:12">
+      <c r="J8">
+        <v>3.2</v>
+      </c>
+      <c r="L8">
+        <v>28.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -146,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -168,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,20 +182,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -197,32 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,14 +235,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -260,37 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,7 +267,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,21 +511,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,6 +525,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,21 +588,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -611,6 +596,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,13 +1396,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
@@ -1531,12 +1531,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="10:12">
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>42469</v>
+      </c>
       <c r="J8">
         <v>3.2</v>
       </c>
       <c r="L8">
         <v>28.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>42470</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>4.8</v>
+      </c>
+      <c r="L9">
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7875" activeTab="2"/>
+    <workbookView windowWidth="18510" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -168,36 +168,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,15 +242,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,24 +257,47 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,51 +310,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -544,11 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +594,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -587,30 +611,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +619,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,133 +631,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,10 +1396,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1549,11 +1549,28 @@
       <c r="B9">
         <v>14</v>
       </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
       <c r="J9">
         <v>4.8</v>
       </c>
       <c r="L9">
         <v>533</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>42471</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="J10">
+        <v>3.2</v>
+      </c>
+      <c r="L10">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7455" activeTab="2"/>
+    <workbookView windowWidth="18480" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -146,12 +146,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="3" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,45 +182,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,6 +234,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -240,64 +249,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +263,60 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -320,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,60 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -611,6 +564,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,16 +638,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,119 +656,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +782,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1126,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1167,10 +1177,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1227,7 +1237,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>42468</v>
       </c>
       <c r="B13" t="s">
@@ -1238,7 +1248,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1396,10 +1406,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1571,6 +1581,20 @@
       </c>
       <c r="L10">
         <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>42472</v>
+      </c>
+      <c r="E11">
+        <v>3800</v>
+      </c>
+      <c r="J11">
+        <v>3.2</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7875"/>
+    <workbookView windowWidth="18510" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -147,11 +147,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="3" tint="0.4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -189,14 +196,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,14 +265,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -234,23 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,55 +295,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,6 +525,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,17 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,30 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +616,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,137 +645,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,6 +792,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1136,8 +1146,8 @@
   <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1197,10 +1207,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1237,7 +1247,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>42468</v>
       </c>
       <c r="B13" t="s">
@@ -1248,7 +1258,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1406,10 +1416,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1595,6 +1605,23 @@
       </c>
       <c r="L11">
         <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>42473</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>3845</v>
+      </c>
+      <c r="J12">
+        <v>3.2</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7875" activeTab="2"/>
+    <workbookView windowWidth="18510" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -147,11 +147,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,84 +175,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="0.4"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,6 +233,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -281,45 +264,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,13 +327,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,25 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,49 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,85 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,17 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,23 +574,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,15 +618,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -633,10 +626,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,10 +638,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,125 +650,125 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,9 +785,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1207,10 +1197,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1247,7 +1237,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>42468</v>
       </c>
       <c r="B13" t="s">
@@ -1258,7 +1248,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -1416,10 +1406,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1622,6 +1612,17 @@
       </c>
       <c r="L12">
         <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>42474</v>
+      </c>
+      <c r="J13">
+        <v>3.2</v>
+      </c>
+      <c r="L13">
+        <v>34.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -146,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -181,37 +181,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +250,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -234,85 +258,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,19 +327,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,163 +441,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,32 +518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,11 +545,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,6 +607,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,145 +626,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,10 +1406,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1618,11 +1618,33 @@
       <c r="A13" s="2">
         <v>42474</v>
       </c>
+      <c r="E13">
+        <v>3930</v>
+      </c>
       <c r="J13">
         <v>3.2</v>
       </c>
       <c r="L13">
         <v>34.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>42475</v>
+      </c>
+      <c r="J14">
+        <v>3.2</v>
+      </c>
+      <c r="L14">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>42476</v>
+      </c>
+      <c r="L15">
+        <v>15.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -175,28 +175,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +196,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,85 +302,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,187 +327,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,21 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -580,6 +565,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,17 +618,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -626,145 +626,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1406,10 +1406,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1636,7 +1636,7 @@
         <v>3.2</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1644,7 +1644,18 @@
         <v>42476</v>
       </c>
       <c r="L15">
-        <v>15.5</v>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>42477</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="L16">
+        <v>70.9</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>14:00-17:00</t>
+  </si>
+  <si>
+    <t>组队副本战斗同步优化</t>
+  </si>
+  <si>
+    <t>web登陆等的mysql接口修改（由于改成了mysqli）</t>
+  </si>
+  <si>
+    <t>聊天，观察协议加一个好友id（统一）</t>
+  </si>
+  <si>
+    <t>去掉主机托管终止协议</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -146,12 +158,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,14 +187,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,91 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +301,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -310,9 +323,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,187 +346,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,11 +540,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +590,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,58 +632,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,137 +657,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,6 +804,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1134,15 +1156,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="33.375" customWidth="1"/>
+    <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1226,7 +1248,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1237,7 +1259,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>42468</v>
       </c>
       <c r="B13" t="s">
@@ -1248,8 +1270,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
@@ -1283,6 +1305,26 @@
       </c>
       <c r="C18" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1346,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1317,19 +1359,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1337,7 +1379,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1345,7 +1387,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1353,7 +1395,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1361,7 +1403,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1369,7 +1411,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1377,7 +1419,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1385,12 +1427,12 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -1416,50 +1458,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -90,10 +90,19 @@
     <t>web登陆等的mysql接口修改（由于改成了mysqli）</t>
   </si>
   <si>
-    <t>聊天，观察协议加一个好友id（统一）</t>
+    <t>聊天，观察协议加一个头像id（统一）</t>
   </si>
   <si>
     <t>去掉主机托管终止协议</t>
+  </si>
+  <si>
+    <t>西域英雄官网</t>
+  </si>
+  <si>
+    <t>gost</t>
+  </si>
+  <si>
+    <t>玩家掉线后，没有被托管</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -158,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -193,6 +202,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,7 +226,75 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,16 +308,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,105 +325,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,19 +355,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,138 +523,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -515,18 +536,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +546,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,7 +618,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,56 +638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -645,10 +654,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,133 +666,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -806,10 +815,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1156,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1248,7 +1257,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1259,10 +1268,10 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>42468</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
@@ -1270,8 +1279,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
@@ -1318,13 +1327,28 @@
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1370,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1359,19 +1383,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1379,7 +1403,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1387,7 +1411,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1395,7 +1419,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1403,7 +1427,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1411,7 +1435,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1419,7 +1443,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1427,12 +1451,12 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1458,50 +1482,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12195"/>
+    <workbookView windowWidth="18480" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -167,12 +167,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,23 +195,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,35 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,9 +233,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +271,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -292,9 +302,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,39 +317,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,21 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,26 +553,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,7 +576,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,8 +614,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,137 +659,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -816,9 +809,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,7 +1157,7 @@
   <sheetPr/>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -1271,7 +1261,7 @@
       <c r="A13" s="6">
         <v>42468</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
@@ -1327,12 +1317,12 @@
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1472,10 +1462,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1722,6 +1712,20 @@
       </c>
       <c r="L16">
         <v>70.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
+        <v>42478</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>3.2</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>玩家掉线后，没有被托管</t>
+  </si>
+  <si>
+    <t>战斗服心跳考虑</t>
+  </si>
+  <si>
+    <t>好友表索引</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -167,12 +173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,31 +201,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +230,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -240,24 +260,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,8 +297,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,30 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,12 +322,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -333,7 +346,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,61 +368,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,121 +542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,21 +573,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +601,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,11 +636,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,17 +659,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +667,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,19 +679,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,116 +700,116 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +829,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1281,7 +1307,7 @@
       <c r="A16" s="3">
         <v>42469</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -1290,7 +1316,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -1299,7 +1325,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -1337,8 +1363,18 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1396,7 @@
   <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1373,19 +1409,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1393,7 +1429,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1401,7 +1437,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1409,7 +1445,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1417,7 +1453,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1425,7 +1461,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1433,7 +1469,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1441,12 +1477,12 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1462,60 +1498,60 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1726,6 +1762,17 @@
       </c>
       <c r="L17">
         <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
+        <v>42479</v>
+      </c>
+      <c r="J18">
+        <v>3.2</v>
+      </c>
+      <c r="L18">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12195"/>
+    <workbookView windowWidth="25095" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>好友表索引</t>
+  </si>
+  <si>
+    <t>phabricator环境搭建</t>
+  </si>
+  <si>
+    <t>禅道部署</t>
+  </si>
+  <si>
+    <t>jekins</t>
+  </si>
+  <si>
+    <t>程序后缀带svn版本号和编译时间</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -173,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,7 +221,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -217,6 +245,68 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,121 +329,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,43 +373,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +535,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,115 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,17 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +587,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,31 +642,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,137 +684,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +837,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1181,10 +1183,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1363,7 +1365,7 @@
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1375,6 +1377,26 @@
     <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1409,19 +1431,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1429,7 +1451,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1437,7 +1459,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1445,7 +1467,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1453,7 +1475,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1461,7 +1483,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1469,7 +1491,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1477,12 +1499,12 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1508,50 +1530,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="18480" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,15 +221,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,59 +263,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -306,7 +273,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,14 +312,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +359,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,55 +373,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,127 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,21 +587,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,26 +617,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +655,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,145 +672,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1795,6 +1795,23 @@
       </c>
       <c r="L18">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
+        <v>42480</v>
+      </c>
+      <c r="B19">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>3671</v>
+      </c>
+      <c r="J19">
+        <v>3.2</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18480" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="18510" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -228,6 +228,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,21 +242,108 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,102 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,91 +373,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,85 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,17 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -649,6 +638,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1812,6 +1812,20 @@
       </c>
       <c r="L19">
         <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
+        <v>42481</v>
+      </c>
+      <c r="E20">
+        <v>6900</v>
+      </c>
+      <c r="J20">
+        <v>3.2</v>
+      </c>
+      <c r="L20">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7875" activeTab="2"/>
+    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,6 +221,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,21 +250,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,46 +273,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,22 +295,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -357,8 +318,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,25 +373,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,60 +523,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,91 +535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,60 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -650,6 +596,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -664,6 +649,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1826,6 +1826,20 @@
       </c>
       <c r="L20">
         <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>42482</v>
+      </c>
+      <c r="F21">
+        <v>6540</v>
+      </c>
+      <c r="J21">
+        <v>3.2</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
+    <workbookView windowWidth="18510" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,6 +221,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,6 +242,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -236,29 +280,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,37 +317,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -326,39 +349,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +373,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +487,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,151 +547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,86 +658,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1185,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1840,6 +1840,28 @@
       </c>
       <c r="L21">
         <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
+        <v>42483</v>
+      </c>
+      <c r="J22">
+        <v>3.2</v>
+      </c>
+      <c r="L22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
+        <v>42484</v>
+      </c>
+      <c r="J23">
+        <v>25.7</v>
+      </c>
+      <c r="L23">
+        <v>188.7</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7440"/>
+    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,6 +221,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,21 +264,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,37 +311,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,24 +341,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,29 +363,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,6 +373,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -385,73 +433,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,97 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,17 +617,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,26 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,15 +664,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,7 +1185,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1862,6 +1862,20 @@
       </c>
       <c r="L23">
         <v>188.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
+        <v>42485</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>3.2</v>
+      </c>
+      <c r="L24">
+        <v>46.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -228,14 +228,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,15 +249,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,8 +280,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,22 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -317,50 +357,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -373,49 +373,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +529,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -434,126 +554,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,6 +600,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -602,35 +635,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,17 +654,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,145 +672,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,9 +1520,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -1876,6 +1876,17 @@
       </c>
       <c r="L24">
         <v>46.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
+        <v>42486</v>
+      </c>
+      <c r="J25">
+        <v>3.2</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>收入</t>
+  </si>
+  <si>
+    <t>04=27</t>
   </si>
 </sst>
 </file>
@@ -185,8 +188,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -228,6 +231,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -235,7 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +266,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -264,105 +366,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,25 +376,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,151 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,6 +575,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +614,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -623,47 +667,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,145 +675,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1523,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1887,6 +1890,23 @@
       </c>
       <c r="L25">
         <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+      <c r="E26">
+        <v>3450</v>
+      </c>
+      <c r="J26">
+        <v>3.2</v>
+      </c>
+      <c r="L26">
+        <v>41.7</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>收入</t>
-  </si>
-  <si>
-    <t>04=27</t>
   </si>
 </sst>
 </file>
@@ -189,8 +186,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -230,6 +227,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -237,22 +309,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,41 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,44 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,18 +373,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,168 +554,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,22 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +607,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -629,32 +645,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,8 +659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1523,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1893,8 +1890,8 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" t="s">
-        <v>54</v>
+      <c r="A26" s="2">
+        <v>42487</v>
       </c>
       <c r="B26">
         <v>14</v>
@@ -1907,6 +1904,60 @@
       </c>
       <c r="L26">
         <v>41.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2">
+        <v>42488</v>
+      </c>
+      <c r="B27"/>
+      <c r="F27">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28">
+        <f>SUM(B3:B27)</f>
+        <v>154</v>
+      </c>
+      <c r="E28">
+        <f>SUM(E3:E27)</f>
+        <v>25100</v>
+      </c>
+      <c r="F28">
+        <f>SUM(F3:F27)</f>
+        <v>25036</v>
+      </c>
+      <c r="H28">
+        <f>SUM(H3:H27)</f>
+        <v>70</v>
+      </c>
+      <c r="J28">
+        <f>SUM(J3:J27)</f>
+        <v>101.3</v>
+      </c>
+      <c r="L28">
+        <f>SUM(L3:L27)</f>
+        <v>1424.8</v>
+      </c>
+      <c r="M28">
+        <f>SUM(M3:M27)</f>
+        <v>853</v>
+      </c>
+      <c r="N28">
+        <f>SUM(H28:M28)</f>
+        <v>2449.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
+        <v>42492</v>
+      </c>
+      <c r="B30">
+        <v>44</v>
+      </c>
+      <c r="L30">
+        <v>205.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,7 +221,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,22 +302,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,37 +333,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -335,30 +358,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,25 +373,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,151 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -578,6 +598,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,21 +641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -644,26 +664,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1910,38 +1910,37 @@
       <c r="A27" s="2">
         <v>42488</v>
       </c>
-      <c r="B27"/>
       <c r="F27">
         <v>3650</v>
       </c>
     </row>
     <row r="28" spans="2:14">
       <c r="B28">
-        <f>SUM(B3:B27)</f>
+        <f t="shared" ref="B28:F28" si="0">SUM(B3:B27)</f>
         <v>154</v>
       </c>
       <c r="E28">
-        <f>SUM(E3:E27)</f>
+        <f t="shared" si="0"/>
         <v>25100</v>
       </c>
       <c r="F28">
-        <f>SUM(F3:F27)</f>
+        <f t="shared" si="0"/>
         <v>25036</v>
       </c>
       <c r="H28">
-        <f>SUM(H3:H27)</f>
+        <f t="shared" ref="H28:M28" si="1">SUM(H3:H27)</f>
         <v>70</v>
       </c>
       <c r="J28">
-        <f>SUM(J3:J27)</f>
+        <f t="shared" si="1"/>
         <v>101.3</v>
       </c>
       <c r="L28">
-        <f>SUM(L3:L27)</f>
+        <f t="shared" si="1"/>
         <v>1424.8</v>
       </c>
       <c r="M28">
-        <f>SUM(M3:M27)</f>
+        <f t="shared" si="1"/>
         <v>853</v>
       </c>
       <c r="N28">
@@ -1958,6 +1957,20 @@
       </c>
       <c r="L30">
         <v>205.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>42493</v>
+      </c>
+      <c r="E31">
+        <v>10540</v>
+      </c>
+      <c r="J31">
+        <v>3.2</v>
+      </c>
+      <c r="L31">
+        <v>14.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,8 +185,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -228,9 +228,131 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,128 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,19 +373,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +475,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -409,13 +517,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,133 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,41 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -664,6 +629,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1971,6 +1971,20 @@
       </c>
       <c r="L31">
         <v>14.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
+        <v>42494</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>3.2</v>
+      </c>
+      <c r="L32">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -228,7 +228,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +258,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,10 +286,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,21 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -326,17 +343,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,17 +357,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,67 +373,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,115 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,33 +632,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,11 +658,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1980,11 +1980,56 @@
       <c r="B32">
         <v>20</v>
       </c>
+      <c r="H32">
+        <v>70</v>
+      </c>
       <c r="J32">
         <v>3.2</v>
       </c>
       <c r="L32">
         <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2">
+        <v>42495</v>
+      </c>
+      <c r="F33">
+        <v>11375</v>
+      </c>
+      <c r="J33">
+        <v>3.2</v>
+      </c>
+      <c r="L33">
+        <v>57.8</v>
+      </c>
+      <c r="M33">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
+        <v>42496</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>3.2</v>
+      </c>
+      <c r="L34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
+        <v>42497</v>
+      </c>
+      <c r="J35">
+        <v>3.2</v>
+      </c>
+      <c r="L35">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -220,6 +220,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -228,7 +298,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,8 +319,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,44 +346,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -302,61 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -373,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,45 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -630,13 +591,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,8 +648,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2030,6 +2030,37 @@
       </c>
       <c r="L35">
         <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
+        <v>42498</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>3.2</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2">
+        <v>42499</v>
+      </c>
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="J37">
+        <v>3.2</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,6 +217,81 @@
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,14 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -244,11 +311,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,110 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,13 +373,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,19 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,145 +541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,6 +606,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -608,24 +632,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,26 +664,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2061,6 +2061,17 @@
       </c>
       <c r="M37">
         <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="2">
+        <v>42500</v>
+      </c>
+      <c r="J38">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>35.7</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,6 +217,119 @@
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,13 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -252,112 +358,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -373,19 +373,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,163 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,16 +567,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -609,8 +609,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,26 +641,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2072,6 +2072,31 @@
       </c>
       <c r="L38">
         <v>35.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
+        <v>42501</v>
+      </c>
+      <c r="J39">
+        <v>3.2</v>
+      </c>
+      <c r="L39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
+        <v>42502</v>
+      </c>
+      <c r="E40">
+        <v>7190</v>
+      </c>
+      <c r="J40">
+        <v>3.2</v>
+      </c>
+      <c r="L40">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -185,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,42 +214,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,8 +242,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,90 +364,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,8 +592,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,15 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,8 +657,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,137 +691,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,10 +840,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1255,7 +1265,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -1266,7 +1276,7 @@
       <c r="A10" s="3">
         <v>42467</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
@@ -1286,7 +1296,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>42468</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1297,7 +1307,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1319,7 @@
       <c r="A16" s="3">
         <v>42469</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -1318,7 +1328,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -1327,7 +1337,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -1335,7 +1345,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1370,7 +1380,7 @@
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1520,10 +1530,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2097,6 +2107,53 @@
       </c>
       <c r="L40">
         <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
+        <v>42503</v>
+      </c>
+      <c r="F41">
+        <v>6960</v>
+      </c>
+      <c r="J41">
+        <v>3.2</v>
+      </c>
+      <c r="L41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="2">
+        <v>42504</v>
+      </c>
+      <c r="L42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="2">
+        <v>42505</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="L43">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="2">
+        <v>42506</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="J44">
+        <v>3.2</v>
+      </c>
+      <c r="L44">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -185,12 +185,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,16 +214,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,6 +231,44 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,6 +280,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -250,42 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -294,11 +334,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,66 +357,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -380,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +564,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -592,49 +624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,8 +647,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -666,8 +659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,137 +684,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,13 +833,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1185,7 @@
   <sheetPr/>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1265,7 +1255,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -1276,7 +1266,7 @@
       <c r="A10" s="3">
         <v>42467</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
@@ -1296,7 +1286,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>42468</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1307,7 +1297,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1319,7 +1309,7 @@
       <c r="A16" s="3">
         <v>42469</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -1328,7 +1318,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -1337,7 +1327,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -1345,7 +1335,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1380,7 +1370,7 @@
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1530,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2153,7 +2143,21 @@
         <v>3.2</v>
       </c>
       <c r="L44">
-        <v>35</v>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="2">
+        <v>42507</v>
+      </c>
+      <c r="E45">
+        <v>11440</v>
+      </c>
+      <c r="J45">
+        <v>3.2</v>
+      </c>
+      <c r="L45">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -187,8 +187,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,16 +221,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,82 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -334,6 +334,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -349,14 +357,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -373,25 +373,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,157 +523,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +564,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -582,11 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,26 +621,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,11 +649,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2158,6 +2158,31 @@
       </c>
       <c r="L45">
         <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
+        <v>42508</v>
+      </c>
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="J46">
+        <v>4.8</v>
+      </c>
+      <c r="L46">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
+        <v>42509</v>
+      </c>
+      <c r="J47">
+        <v>3.2</v>
+      </c>
+      <c r="L47">
+        <v>35.1</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -228,20 +228,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -250,9 +236,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,23 +258,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,9 +267,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,6 +284,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,9 +321,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,16 +349,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,25 +373,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,79 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,72 +554,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,71 +564,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,7 +586,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +653,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2183,6 +2183,17 @@
       </c>
       <c r="L47">
         <v>35.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
+        <v>42510</v>
+      </c>
+      <c r="J48">
+        <v>3.2</v>
+      </c>
+      <c r="L48">
+        <v>33.3</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,6 +221,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -228,15 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,7 +249,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -258,8 +265,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,32 +303,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,8 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,10 +341,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,16 +356,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +567,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,30 +583,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,19 +620,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2194,6 +2194,28 @@
       </c>
       <c r="L48">
         <v>33.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
+        <v>42511</v>
+      </c>
+      <c r="B49">
+        <v>64</v>
+      </c>
+      <c r="J49">
+        <v>3.2</v>
+      </c>
+      <c r="L49">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
+        <v>42512</v>
+      </c>
+      <c r="L50">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -186,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -248,9 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +260,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,17 +294,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,12 +326,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -348,21 +363,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,11 +569,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,15 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,8 +633,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,145 +672,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2216,6 +2216,20 @@
       </c>
       <c r="L50">
         <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
+        <v>42513</v>
+      </c>
+      <c r="B51">
+        <v>16</v>
+      </c>
+      <c r="J51">
+        <v>3.2</v>
+      </c>
+      <c r="L51">
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -186,9 +186,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -221,14 +221,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,14 +242,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,7 +272,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,17 +302,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,17 +334,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,14 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,11 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,26 +621,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +655,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +672,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,133 +684,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,10 +1520,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2225,11 +2225,29 @@
       <c r="B51">
         <v>16</v>
       </c>
+      <c r="F51">
+        <v>11200</v>
+      </c>
       <c r="J51">
         <v>3.2</v>
       </c>
       <c r="L51">
         <v>29.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
+        <v>42514</v>
+      </c>
+      <c r="E52">
+        <v>11450</v>
+      </c>
+      <c r="F52"/>
+      <c r="J52">
+        <v>3.2</v>
+      </c>
+      <c r="L52">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>常用数据格式解析类剥离</t>
+  </si>
+  <si>
+    <t>批处理自动更新代码，编译程序，更新sql文件到本地db</t>
   </si>
   <si>
     <t>彩票</t>
@@ -186,11 +189,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +210,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="3" tint="0.4"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -221,14 +231,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,8 +251,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,114 +373,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,25 +383,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,157 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +577,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,6 +591,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,17 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,26 +660,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,137 +694,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -833,10 +843,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1226,10 +1239,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1246,10 +1259,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1286,7 +1299,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>42468</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1297,7 +1310,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1309,7 +1322,7 @@
       <c r="A16" s="3">
         <v>42469</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -1318,7 +1331,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -1327,7 +1340,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -1415,15 +1428,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:B17"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
@@ -1505,6 +1518,11 @@
     <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1540,7 @@
   <sheetPr/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
@@ -1530,50 +1548,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
         <v>53</v>
       </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2242,7 +2260,6 @@
       <c r="E52">
         <v>11450</v>
       </c>
-      <c r="F52"/>
       <c r="J52">
         <v>3.2</v>
       </c>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -188,22 +188,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,6 +246,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -267,33 +282,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,6 +297,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -312,47 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +330,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,31 +376,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,151 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,54 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -651,11 +596,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,137 +687,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,13 +836,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1239,10 +1229,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1259,10 +1249,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1299,7 +1289,7 @@
       <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>42468</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1310,7 +1300,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1312,7 @@
       <c r="A16" s="3">
         <v>42469</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -1331,7 +1321,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -1340,7 +1330,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -1430,7 +1420,7 @@
   <sheetPr/>
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1521,7 +1511,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1538,10 +1528,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2265,6 +2255,64 @@
       </c>
       <c r="L52">
         <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
+        <v>42515</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="J53">
+        <v>3.2</v>
+      </c>
+      <c r="L53">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
+        <v>42516</v>
+      </c>
+      <c r="J54">
+        <v>3.2</v>
+      </c>
+      <c r="L54">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
+        <v>42517</v>
+      </c>
+      <c r="F55">
+        <v>11199</v>
+      </c>
+      <c r="J55">
+        <v>3.2</v>
+      </c>
+      <c r="L55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
+        <v>42518</v>
+      </c>
+      <c r="L56">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
+        <v>42429</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="L57">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -188,10 +188,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -224,13 +224,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -244,23 +237,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,17 +277,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,25 +304,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,17 +344,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,19 +359,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -376,25 +376,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,19 +490,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,133 +556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,8 +588,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +597,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,11 +618,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,17 +644,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,10 +1528,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2306,13 +2306,30 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="2">
-        <v>42429</v>
+        <v>42519</v>
       </c>
       <c r="B57">
         <v>16</v>
       </c>
       <c r="L57">
         <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
+        <v>42520</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>11300</v>
+      </c>
+      <c r="J58">
+        <v>3.2</v>
+      </c>
+      <c r="L58">
+        <v>23.5</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180" activeTab="2"/>
+    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -231,15 +231,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,75 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,19 +321,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -360,10 +353,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -376,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,17 +570,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +590,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,37 +627,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,6 +656,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,10 +1528,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2286,9 +2286,6 @@
       <c r="A55" s="2">
         <v>42517</v>
       </c>
-      <c r="F55">
-        <v>11199</v>
-      </c>
       <c r="J55">
         <v>3.2</v>
       </c>
@@ -2322,14 +2319,47 @@
       <c r="B58">
         <v>16</v>
       </c>
-      <c r="F58">
-        <v>11300</v>
-      </c>
       <c r="J58">
         <v>3.2</v>
       </c>
       <c r="L58">
         <v>23.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
+        <v>42521</v>
+      </c>
+      <c r="F59">
+        <v>11460</v>
+      </c>
+      <c r="J59">
+        <v>3.2</v>
+      </c>
+      <c r="L59">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
+      <c r="B60">
+        <v>245</v>
+      </c>
+      <c r="C60"/>
+      <c r="J60">
+        <f>SUM(J30:J59)</f>
+        <v>95.2</v>
+      </c>
+      <c r="L60">
+        <f>SUM(L30:L59)</f>
+        <v>1705.7</v>
+      </c>
+      <c r="M60">
+        <f>SUM(M30:M59)</f>
+        <v>996</v>
+      </c>
+      <c r="N60">
+        <f>SUM(B60:M60)</f>
+        <v>3041.9</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -223,8 +223,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,14 +239,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,25 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,31 +309,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,17 +337,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,11 +353,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,187 +376,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,59 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +590,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,6 +626,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -675,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,133 +687,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1528,10 +1528,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2344,22 +2344,49 @@
       <c r="B60">
         <v>245</v>
       </c>
-      <c r="C60"/>
       <c r="J60">
-        <f>SUM(J30:J59)</f>
+        <f t="shared" ref="J60:M60" si="2">SUM(J30:J59)</f>
         <v>95.2</v>
       </c>
       <c r="L60">
-        <f>SUM(L30:L59)</f>
+        <f t="shared" si="2"/>
         <v>1705.7</v>
       </c>
       <c r="M60">
-        <f>SUM(M30:M59)</f>
+        <f t="shared" si="2"/>
         <v>996</v>
       </c>
       <c r="N60">
         <f>SUM(B60:M60)</f>
         <v>3041.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B62">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>3.2</v>
+      </c>
+      <c r="L62">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12">
+      <c r="E63">
+        <v>11429</v>
+      </c>
+      <c r="J63">
+        <v>3.2</v>
+      </c>
+      <c r="L63">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18510" windowHeight="7440" activeTab="2"/>
+    <workbookView windowWidth="25095" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -121,6 +121,58 @@
   </si>
   <si>
     <t>程序后缀带svn版本号和编译时间</t>
+  </si>
+  <si>
+    <t>php编译库</t>
+  </si>
+  <si>
+    <t>关系服务器扩容考虑</t>
+  </si>
+  <si>
+    <t>sdk接入</t>
+  </si>
+  <si>
+    <t>关系服务器被访问到，但没有在线的玩家，需要加载好友数据</t>
+  </si>
+  <si>
+    <t>公告和gm信息的变化更新到memcache</t>
+  </si>
+  <si>
+    <t>mfclient测试libvent并发量</t>
+  </si>
+  <si>
+    <t>mianshiti</t>
+  </si>
+  <si>
+    <t>邮件服not find gs_session,player_id:</t>
+  </si>
+  <si>
+    <t>数据加密</t>
+  </si>
+  <si>
+    <t>战斗服兵团死后，兵团数减1，不能再次召唤该兵团，兵团阵法上的每个兵团只能召唤一次
+等待调用礼祥的战损接口</t>
+  </si>
+  <si>
+    <t>linux下httpd gm模块</t>
+  </si>
+  <si>
+    <t>战斗服协议限制,复活频率1分钟最多6次,一场战斗最多召唤10个npc</t>
+  </si>
+  <si>
+    <t>ems,fs,rs,trsf, 在其他服务器运行中, 能否能单独维护重启? 如果可以,怎么处理?</t>
+  </si>
+  <si>
+    <t>2. 对于正在战斗,收取玩家的资源,但是发生服务器关闭, 这种启动,只能采取维护补偿. 考虑邮件数据库,增加一张表,记录最近7天内,登录过的玩家. 定时删除超过7天的玩家.
+3. gmtool,发送奖励,增加一个 某一天内登录过的玩家,能领取奖励
+4. 制作一个补偿领取脚本. 可以配置奖励 和 简单领取条件 (例如等级)</t>
+  </si>
+  <si>
+    <t>mfcclient界面显示</t>
+  </si>
+  <si>
+    <t>fs日志断开重连时间长查看，unity,客户端发送结算请求到fs，fs返回一个协议，告知client
+我已收到req。req转到gs，将状态置为可以继续战斗的标志</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -193,7 +245,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,18 +275,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="4"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,10 +304,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,16 +372,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,74 +432,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -376,31 +442,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,151 +616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,60 +641,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,6 +669,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -667,6 +709,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -675,149 +741,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +907,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1186,15 +1270,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="50.875" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1343,7 +1427,7 @@
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1358,12 +1442,12 @@
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1378,7 +1462,7 @@
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1402,12 +1486,103 @@
         <v>34</v>
       </c>
     </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8">
+        <v>42548</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="2:2">
+      <c r="B42" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2">
+        <v>42553</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="11">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="46" ht="54" spans="2:3">
+      <c r="B46" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="13"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" ht="40.5" spans="2:2">
+      <c r="B48" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A16:A18"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1434,19 +1609,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1454,7 +1629,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1462,7 +1637,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1470,7 +1645,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1478,7 +1653,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1486,7 +1661,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1494,7 +1669,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1502,17 +1677,17 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1705,7 @@
   <sheetPr/>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
@@ -1538,50 +1713,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -163,9 +163,10 @@
     <t>ems,fs,rs,trsf, 在其他服务器运行中, 能否能单独维护重启? 如果可以,怎么处理?</t>
   </si>
   <si>
-    <t>2. 对于正在战斗,收取玩家的资源,但是发生服务器关闭, 这种启动,只能采取维护补偿. 考虑邮件数据库,增加一张表,记录最近7天内,登录过的玩家. 定时删除超过7天的玩家.
+    <t xml:space="preserve">2. 对于正在战斗,收取玩家的资源,但是发生服务器关闭, 这种启动,只能采取维护补偿. 考虑邮件数据库,增加一张表,记录最近7天内,登录过的玩家. 定时删除超过7天的玩家.
 3. gmtool,发送奖励,增加一个 某一天内登录过的玩家,能领取奖励
-4. 制作一个补偿领取脚本. 可以配置奖励 和 简单领取条件 (例如等级)</t>
+4. 制作一个补偿领取脚本. 可以配置奖励 和 简单领取条件 (例如等级)
+</t>
   </si>
   <si>
     <t>mfcclient界面显示</t>
@@ -173,6 +174,16 @@
   <si>
     <t>fs日志断开重连时间长查看，unity,客户端发送结算请求到fs，fs返回一个协议，告知client
 我已收到req。req转到gs，将状态置为可以继续战斗的标志</t>
+  </si>
+  <si>
+    <t>memcache,redis接口熟悉，lua服务器框架</t>
+  </si>
+  <si>
+    <t>待修改，7天登陆日志的修改：gs到emaildb的异步去掉，发送一条协议到es，有es同步或者
+异步写</t>
+  </si>
+  <si>
+    <t>召唤和复活bufid保存,复活buffid改成repeated</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -241,11 +252,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,19 +287,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -301,6 +345,50 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,97 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,9 +423,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,19 +446,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,163 +608,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,54 +637,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,20 +657,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,6 +678,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -741,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,137 +757,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,20 +915,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1270,10 +1268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1545,7 +1543,7 @@
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="2">
@@ -1553,18 +1551,18 @@
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="3">
         <v>42559</v>
       </c>
     </row>
-    <row r="46" ht="54" spans="2:3">
-      <c r="B46" s="12" t="s">
+    <row r="46" ht="67.5" spans="2:3">
+      <c r="B46" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
@@ -1574,6 +1572,21 @@
     <row r="48" ht="40.5" spans="2:2">
       <c r="B48" s="9" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="2:2">
+      <c r="B50" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1609,19 +1622,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1629,7 +1642,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1637,7 +1650,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1645,7 +1658,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1653,7 +1666,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1661,7 +1674,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1669,7 +1682,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1677,17 +1690,17 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1713,50 +1726,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -154,7 +154,9 @@
 等待调用礼祥的战损接口</t>
   </si>
   <si>
-    <t>linux下httpd gm模块</t>
+    <t>linux下httpd gm模块
+dump文件，
+调试技巧</t>
   </si>
   <si>
     <t>战斗服协议限制,复活频率1分钟最多6次,一场战斗最多召唤10个npc</t>
@@ -184,6 +186,12 @@
   </si>
   <si>
     <t>召唤和复活bufid保存,复活buffid改成repeated</t>
+  </si>
+  <si>
+    <t>libcurld.dll,安装暗黑召唤神，西域英雄</t>
+  </si>
+  <si>
+    <t>gmtool发送完邮件奖励后，清空当前页面</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -256,7 +264,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +301,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -311,6 +333,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,14 +401,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -365,51 +417,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,14 +439,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,12 +461,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,12 +515,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -482,151 +635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,137 +772,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,11 +933,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1268,10 +1289,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1537,8 +1558,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="43" ht="40.5" spans="2:2">
+      <c r="B43" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1559,7 +1580,7 @@
       </c>
     </row>
     <row r="46" ht="67.5" spans="2:3">
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="3"/>
@@ -1580,13 +1601,33 @@
       </c>
     </row>
     <row r="50" ht="40.5" spans="2:2">
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" t="s">
+      <c r="B51" s="13" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2">
+        <v>42562</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2">
+        <v>42593</v>
       </c>
     </row>
   </sheetData>
@@ -1622,19 +1663,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1642,7 +1683,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1650,7 +1691,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1658,7 +1699,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1666,7 +1707,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1674,7 +1715,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1682,7 +1723,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1690,17 +1731,17 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1726,50 +1767,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -259,12 +259,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,13 +302,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -317,46 +310,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,7 +339,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,47 +431,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,187 +454,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +645,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -673,38 +711,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,30 +745,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +753,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,137 +765,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,12 +931,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1291,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1601,12 +1588,12 @@
       </c>
     </row>
     <row r="50" ht="40.5" spans="2:2">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="4" t="s">
         <v>53</v>
       </c>
     </row>

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -126,7 +126,28 @@
     <t>php编译库</t>
   </si>
   <si>
-    <t>关系服务器扩容考虑</t>
+    <t>批处理获取问题玩家数据,规范表名，玩家唯一标识的定义,将引用不规范表名和玩家的标志的地方全
+全部用规范后的数据处理</t>
+  </si>
+  <si>
+    <t>如下面试问题待解决：
+memcache 是怎么存储数值的
+linux下的进程分几段
+redis数值的存储结构
+tcp/ip的time_wait用什么命令查看，怎么解决timeout的问题
+protobuf与jason的区别
+项目中遇到难点
+虚函数表的功能，虚函数的作用
+多态的实现
+堆栈区别</t>
+  </si>
+  <si>
+    <t>关系服务器扩容(进程和db)考虑(防止出现不能处理过多数据请求的情况，以及过多数据存储的情况)
+邮件服扩容
+战斗服扩容（自动扩容）</t>
+  </si>
+  <si>
+    <t>sh下有网络和数据库的东西</t>
   </si>
   <si>
     <t>sdk接入</t>
@@ -192,6 +213,23 @@
   </si>
   <si>
     <t>gmtool发送完邮件奖励后，清空当前页面</t>
+  </si>
+  <si>
+    <t>linux高性能服务器编程.pdf</t>
+  </si>
+  <si>
+    <t>大话数据结构.pdf</t>
+  </si>
+  <si>
+    <t>大话设计模式.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数据库信息，表名等弄成一个独立的组件，其他需要拿数据库信息的工程，都从这个组件拿，
+这样以后要改数据库，表名等信息，都只要改这个组件
+</t>
+  </si>
+  <si>
+    <t>gs断掉，rs会异常崩掉</t>
   </si>
   <si>
     <t>代码更新到硬盘</t>
@@ -302,22 +340,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,7 +369,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,14 +391,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -370,17 +414,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,23 +428,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,22 +453,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,43 +498,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,43 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,85 +672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,6 +702,48 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -674,21 +754,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,24 +775,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -736,15 +783,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -753,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,137 +803,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +957,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1276,15 +1317,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="2" max="2" width="83.75" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1497,26 +1538,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" t="s">
+    <row r="34" ht="27" spans="2:3">
+      <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="9">
         <v>42548</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="35" ht="135" spans="2:2">
+      <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="4" t="s">
+    <row r="36" ht="40.5" spans="2:2">
+      <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" t="s">
+      <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1526,7 +1567,7 @@
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1540,60 +1581,60 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="2:2">
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" ht="40.5" spans="2:2">
-      <c r="B43" s="10" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="4" t="s">
+      <c r="B44" t="s">
         <v>46</v>
       </c>
       <c r="C44" s="2">
         <v>42553</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="4" t="s">
+    <row r="45" ht="27" spans="2:3">
+      <c r="B45" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="3">
         <v>42559</v>
       </c>
     </row>
-    <row r="46" ht="67.5" spans="2:3">
+    <row r="46" ht="40.5" spans="2:3">
       <c r="B46" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" ht="40.5" spans="2:2">
-      <c r="B48" s="9" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="49" ht="67.5" spans="2:2">
+      <c r="B49" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" ht="40.5" spans="2:2">
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="4" t="s">
+    <row r="51" ht="27" spans="2:2">
+      <c r="B51" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1602,19 +1643,59 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="53" ht="27" spans="2:2">
+      <c r="B53" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="2">
+      <c r="B54" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2">
         <v>42562</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2">
+    <row r="58" spans="2:2">
+      <c r="B58" s="2">
         <v>42593</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" ht="40.5" spans="2:2">
+      <c r="B63" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1650,19 +1731,19 @@
         <v>42466</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1670,7 +1751,7 @@
         <v>42467</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1678,7 +1759,7 @@
         <v>42468</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1686,7 +1767,7 @@
         <v>42468</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1694,7 +1775,7 @@
         <v>42469</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1702,7 +1783,7 @@
         <v>42469</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1710,7 +1791,7 @@
         <v>42470</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1718,17 +1799,17 @@
         <v>42470</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1754,50 +1835,50 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1"/>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/plan_of_april.xlsx
+++ b/plan_of_april.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12180"/>
+    <workbookView windowWidth="18585" windowHeight="7860" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作" sheetId="1" r:id="rId1"/>
     <sheet name="业余自学" sheetId="2" r:id="rId2"/>
     <sheet name="生活开支" sheetId="3" r:id="rId3"/>
+    <sheet name="09-10" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>fight server断线重连测试</t>
   </si>
@@ -291,16 +292,22 @@
   <si>
     <t>收入</t>
   </si>
+  <si>
+    <t>1.交入职相关材料
+2.让交接人讲解整个服务器的框架和通讯流程,协议在哪里订,消息在哪里注册，处理
+3.放下面子，多问人，多和人沟通
+4.根据工作安排,制定好本周的工作计划</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -340,14 +347,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -355,7 +369,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,15 +389,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,47 +437,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,17 +451,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,6 +468,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -475,9 +483,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,6 +499,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,37 +571,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,133 +643,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,6 +690,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -716,33 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -754,6 +752,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,11 +784,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,133 +810,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -937,12 +944,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,9 +975,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1319,8 +1326,8 @@
   <sheetPr/>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1330,66 +1337,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3">
+      <c r="A1" s="4">
         <v>42465</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>42466</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -1397,10 +1404,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>42467</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
@@ -1408,8 +1415,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
@@ -1417,13 +1424,13 @@
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>42468</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
@@ -1431,8 +1438,8 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
@@ -1440,10 +1447,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>42469</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
@@ -1451,8 +1458,8 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
@@ -1460,8 +1467,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
@@ -1469,47 +1476,47 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1539,25 +1546,25 @@
       </c>
     </row>
     <row r="34" ht="27" spans="2:3">
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="10">
         <v>42548</v>
       </c>
     </row>
     <row r="35" ht="135" spans="2:2">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="2:2">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1567,7 +1574,7 @@
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1595,31 +1602,31 @@
       <c r="B44" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>42553</v>
       </c>
     </row>
     <row r="45" ht="27" spans="2:3">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="4">
         <v>42559</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="2:3">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1634,7 +1641,7 @@
       </c>
     </row>
     <row r="51" ht="27" spans="2:2">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1644,12 +1651,12 @@
       </c>
     </row>
     <row r="53" ht="27" spans="2:2">
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1664,12 +1671,12 @@
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>42562</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>42593</v>
       </c>
     </row>
@@ -1689,7 +1696,7 @@
       </c>
     </row>
     <row r="63" ht="40.5" spans="2:2">
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1718,7 +1725,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1727,27 +1734,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>42466</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42467</v>
       </c>
       <c r="B6" t="s">
@@ -1755,7 +1762,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>42468</v>
       </c>
       <c r="B7" t="s">
@@ -1763,7 +1770,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>42468</v>
       </c>
       <c r="B9" t="s">
@@ -1771,7 +1778,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>42469</v>
       </c>
       <c r="B11" t="s">
@@ -1779,7 +1786,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>42469</v>
       </c>
       <c r="B12" t="s">
@@ -1787,7 +1794,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>42470</v>
       </c>
       <c r="B13" t="s">
@@ -1795,7 +1802,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>42470</v>
       </c>
       <c r="B15" t="s">
@@ -1808,7 +1815,7 @@
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1827,21 +1834,21 @@
   <sheetPr/>
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="L63" sqref="L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
       <c r="H1" t="s">
         <v>78</v>
       </c>
@@ -1882,7 +1889,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>42464</v>
       </c>
       <c r="B3">
@@ -1899,7 +1906,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>42465</v>
       </c>
       <c r="E4">
@@ -1916,7 +1923,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>42466</v>
       </c>
       <c r="B5">
@@ -1930,7 +1937,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>42467</v>
       </c>
       <c r="E6">
@@ -1947,7 +1954,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>42468</v>
       </c>
       <c r="F7">
@@ -1961,7 +1968,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>42469</v>
       </c>
       <c r="J8">
@@ -1972,7 +1979,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>42470</v>
       </c>
       <c r="B9">
@@ -1989,7 +1996,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>42471</v>
       </c>
       <c r="B10">
@@ -2003,7 +2010,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>42472</v>
       </c>
       <c r="E11">
@@ -2017,7 +2024,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>42473</v>
       </c>
       <c r="B12">
@@ -2034,7 +2041,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>42474</v>
       </c>
       <c r="E13">
@@ -2048,7 +2055,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>42475</v>
       </c>
       <c r="J14">
@@ -2059,7 +2066,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>42476</v>
       </c>
       <c r="L15">
@@ -2067,7 +2074,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>42477</v>
       </c>
       <c r="B16">
@@ -2078,7 +2085,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>42478</v>
       </c>
       <c r="B17">
@@ -2092,7 +2099,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>42479</v>
       </c>
       <c r="J18">
@@ -2103,7 +2110,7 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>42480</v>
       </c>
       <c r="B19">
@@ -2120,7 +2127,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>42481</v>
       </c>
       <c r="E20">
@@ -2134,7 +2141,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>42482</v>
       </c>
       <c r="F21">
@@ -2148,7 +2155,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>42483</v>
       </c>
       <c r="J22">
@@ -2159,7 +2166,7 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>42484</v>
       </c>
       <c r="J23">
@@ -2170,7 +2177,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>42485</v>
       </c>
       <c r="B24">
@@ -2184,7 +2191,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>42486</v>
       </c>
       <c r="J25">
@@ -2195,7 +2202,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>42487</v>
       </c>
       <c r="B26">
@@ -2212,7 +2219,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>42488</v>
       </c>
       <c r="F27">
@@ -2254,7 +2261,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>42492</v>
       </c>
       <c r="B30">
@@ -2265,7 +2272,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>42493</v>
       </c>
       <c r="E31">
@@ -2279,7 +2286,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>42494</v>
       </c>
       <c r="B32">
@@ -2296,7 +2303,7 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>42495</v>
       </c>
       <c r="F33">
@@ -2313,7 +2320,7 @@
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>42496</v>
       </c>
       <c r="C34">
@@ -2327,7 +2334,7 @@
       </c>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>42497</v>
       </c>
       <c r="J35">
@@ -2338,7 +2345,7 @@
       </c>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>42498</v>
       </c>
       <c r="B36">
@@ -2352,7 +2359,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>42499</v>
       </c>
       <c r="B37">
@@ -2369,7 +2376,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>42500</v>
       </c>
       <c r="J38">
@@ -2380,7 +2387,7 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>42501</v>
       </c>
       <c r="J39">
@@ -2391,7 +2398,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>42502</v>
       </c>
       <c r="E40">
@@ -2405,7 +2412,7 @@
       </c>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>42503</v>
       </c>
       <c r="F41">
@@ -2419,7 +2426,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>42504</v>
       </c>
       <c r="L42">
@@ -2427,7 +2434,7 @@
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>42505</v>
       </c>
       <c r="B43">
@@ -2438,7 +2445,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>42506</v>
       </c>
       <c r="B44">
@@ -2452,7 +2459,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>42507</v>
       </c>
       <c r="E45">
@@ -2466,7 +2473,7 @@
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>42508</v>
       </c>
       <c r="B46">
@@ -2480,7 +2487,7 @@
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>42509</v>
       </c>
       <c r="J47">
@@ -2491,7 +2498,7 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>42510</v>
       </c>
       <c r="J48">
@@ -2502,7 +2509,7 @@
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>42511</v>
       </c>
       <c r="B49">
@@ -2516,7 +2523,7 @@
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>42512</v>
       </c>
       <c r="L50">
@@ -2524,7 +2531,7 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>42513</v>
       </c>
       <c r="B51">
@@ -2541,7 +2548,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>42514</v>
       </c>
       <c r="E52">
@@ -2555,7 +2562,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>42515</v>
       </c>
       <c r="B53">
@@ -2569,7 +2576,7 @@
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>42516</v>
       </c>
       <c r="J54">
@@ -2580,7 +2587,7 @@
       </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>42517</v>
       </c>
       <c r="J55">
@@ -2591,7 +2598,7 @@
       </c>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>42518</v>
       </c>
       <c r="L56">
@@ -2599,7 +2606,7 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>42519</v>
       </c>
       <c r="B57">
@@ -2610,7 +2617,7 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>42520</v>
       </c>
       <c r="B58">
@@ -2624,7 +2631,7 @@
       </c>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>42521</v>
       </c>
       <c r="F59">
@@ -2659,7 +2666,7 @@
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>42522</v>
       </c>
       <c r="B62">
@@ -2695,4 +2702,32 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67.5" spans="1:2">
+      <c r="A1" s="1">
+        <v>42619</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>